--- a/GOODLY/1.Power Query Tricks n Tips/87.Combine Data From Multiple Excel Files into a Single Excel File - With Dynamic Columns and Sheets/DataFiles/Year - 2006.xlsx
+++ b/GOODLY/1.Power Query Tricks n Tips/87.Combine Data From Multiple Excel Files into a Single Excel File - With Dynamic Columns and Sheets/DataFiles/Year - 2006.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TEMP\GoodlyPQ\2.Combine Data from Multiple Excel Files  Case Studies\10.Combine Data From Multiple Excel Files into a Single Excel File - With Dynamic Columns and Sheets\DataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB_REPOSITORY\PowerBI\GOODLY\1.Power Query Tricks n Tips\87.Combine Data From Multiple Excel Files into a Single Excel File - With Dynamic Columns and Sheets\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256BD521-CF66-4208-96ED-30BA556FA6F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4145DE-7940-4632-AA9D-38918C062DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="15696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sales2006" sheetId="1" r:id="rId1"/>
+    <sheet name="Sales2010Praveen" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="42">
   <si>
     <t>Bruce</t>
   </si>
@@ -148,6 +149,21 @@
   <si>
     <t>Exp2006</t>
   </si>
+  <si>
+    <t>MyName</t>
+  </si>
+  <si>
+    <t>Praveen</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
 </sst>
 </file>
 
@@ -188,7 +204,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -211,19 +227,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -542,16 +575,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H134"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A115" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A115" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection sqref="A1:H134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="8" width="15.625" customWidth="1"/>
+    <col min="1" max="8" width="15.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
@@ -577,7 +610,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>38722</v>
       </c>
@@ -603,7 +636,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>38725</v>
       </c>
@@ -629,7 +662,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>38725</v>
       </c>
@@ -655,7 +688,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>38735</v>
       </c>
@@ -681,7 +714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>38736</v>
       </c>
@@ -707,7 +740,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>38738</v>
       </c>
@@ -733,7 +766,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>38740</v>
       </c>
@@ -759,7 +792,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>38741</v>
       </c>
@@ -785,7 +818,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>38744</v>
       </c>
@@ -811,7 +844,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>38745</v>
       </c>
@@ -837,7 +870,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>38746</v>
       </c>
@@ -863,7 +896,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>38747</v>
       </c>
@@ -889,7 +922,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>38759</v>
       </c>
@@ -915,7 +948,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>38762</v>
       </c>
@@ -941,7 +974,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>38764</v>
       </c>
@@ -967,7 +1000,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>38767</v>
       </c>
@@ -993,7 +1026,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>38767</v>
       </c>
@@ -1019,7 +1052,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>38770</v>
       </c>
@@ -1045,7 +1078,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>38772</v>
       </c>
@@ -1071,7 +1104,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>38773</v>
       </c>
@@ -1097,7 +1130,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>38775</v>
       </c>
@@ -1123,7 +1156,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>38777</v>
       </c>
@@ -1149,7 +1182,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>38781</v>
       </c>
@@ -1175,7 +1208,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>38783</v>
       </c>
@@ -1201,7 +1234,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>38784</v>
       </c>
@@ -1227,7 +1260,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>38790</v>
       </c>
@@ -1253,7 +1286,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>38790</v>
       </c>
@@ -1279,7 +1312,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>38791</v>
       </c>
@@ -1305,7 +1338,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>38792</v>
       </c>
@@ -1331,7 +1364,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>38793</v>
       </c>
@@ -1357,7 +1390,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>38796</v>
       </c>
@@ -1383,7 +1416,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>38802</v>
       </c>
@@ -1409,7 +1442,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>38803</v>
       </c>
@@ -1435,7 +1468,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="2">
         <v>38805</v>
       </c>
@@ -1461,7 +1494,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="2">
         <v>38806</v>
       </c>
@@ -1487,7 +1520,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="2">
         <v>38807</v>
       </c>
@@ -1513,7 +1546,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="2">
         <v>38807</v>
       </c>
@@ -1539,7 +1572,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="2">
         <v>38809</v>
       </c>
@@ -1565,7 +1598,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="2">
         <v>38815</v>
       </c>
@@ -1591,7 +1624,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="2">
         <v>38817</v>
       </c>
@@ -1617,7 +1650,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="2">
         <v>38818</v>
       </c>
@@ -1643,7 +1676,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="2">
         <v>38819</v>
       </c>
@@ -1669,7 +1702,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="2">
         <v>38822</v>
       </c>
@@ -1695,7 +1728,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="2">
         <v>38827</v>
       </c>
@@ -1721,7 +1754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="2">
         <v>38829</v>
       </c>
@@ -1747,7 +1780,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="2">
         <v>38832</v>
       </c>
@@ -1773,7 +1806,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="2">
         <v>38835</v>
       </c>
@@ -1799,7 +1832,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="2">
         <v>38838</v>
       </c>
@@ -1825,7 +1858,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="2">
         <v>38840</v>
       </c>
@@ -1851,7 +1884,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="2">
         <v>38843</v>
       </c>
@@ -1877,7 +1910,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="2">
         <v>38848</v>
       </c>
@@ -1903,7 +1936,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="2">
         <v>38850</v>
       </c>
@@ -1929,7 +1962,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="2">
         <v>38852</v>
       </c>
@@ -1955,7 +1988,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="2">
         <v>38853</v>
       </c>
@@ -1981,7 +2014,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="2">
         <v>38854</v>
       </c>
@@ -2007,7 +2040,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="2">
         <v>38859</v>
       </c>
@@ -2033,7 +2066,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2">
         <v>38861</v>
       </c>
@@ -2059,7 +2092,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2">
         <v>38862</v>
       </c>
@@ -2085,7 +2118,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2">
         <v>38866</v>
       </c>
@@ -2111,7 +2144,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2">
         <v>38868</v>
       </c>
@@ -2137,7 +2170,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="2">
         <v>38873</v>
       </c>
@@ -2163,7 +2196,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="2">
         <v>38875</v>
       </c>
@@ -2189,7 +2222,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="2">
         <v>38876</v>
       </c>
@@ -2215,7 +2248,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="2">
         <v>38879</v>
       </c>
@@ -2241,7 +2274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="2">
         <v>38882</v>
       </c>
@@ -2267,7 +2300,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="2">
         <v>38888</v>
       </c>
@@ -2293,7 +2326,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="2">
         <v>38895</v>
       </c>
@@ -2319,7 +2352,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="2">
         <v>38896</v>
       </c>
@@ -2345,7 +2378,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="2">
         <v>38897</v>
       </c>
@@ -2371,7 +2404,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="2">
         <v>38898</v>
       </c>
@@ -2397,7 +2430,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="2">
         <v>38899</v>
       </c>
@@ -2423,7 +2456,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="2">
         <v>38902</v>
       </c>
@@ -2449,7 +2482,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="2">
         <v>38903</v>
       </c>
@@ -2475,7 +2508,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="2">
         <v>38907</v>
       </c>
@@ -2501,7 +2534,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="2">
         <v>38907</v>
       </c>
@@ -2527,7 +2560,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="2">
         <v>38908</v>
       </c>
@@ -2553,7 +2586,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="2">
         <v>38910</v>
       </c>
@@ -2579,7 +2612,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="2">
         <v>38911</v>
       </c>
@@ -2605,7 +2638,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="2">
         <v>38915</v>
       </c>
@@ -2631,7 +2664,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="2">
         <v>38920</v>
       </c>
@@ -2657,7 +2690,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="2">
         <v>38920</v>
       </c>
@@ -2683,7 +2716,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="2">
         <v>38921</v>
       </c>
@@ -2709,7 +2742,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="2">
         <v>38921</v>
       </c>
@@ -2735,7 +2768,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="2">
         <v>38926</v>
       </c>
@@ -2761,7 +2794,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="2">
         <v>38927</v>
       </c>
@@ -2787,7 +2820,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="2">
         <v>38930</v>
       </c>
@@ -2813,7 +2846,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="2">
         <v>38932</v>
       </c>
@@ -2839,7 +2872,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="2">
         <v>38936</v>
       </c>
@@ -2865,7 +2898,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="2">
         <v>38940</v>
       </c>
@@ -2891,7 +2924,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="2">
         <v>38941</v>
       </c>
@@ -2917,7 +2950,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="2">
         <v>38944</v>
       </c>
@@ -2943,7 +2976,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="2">
         <v>38945</v>
       </c>
@@ -2969,7 +3002,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="2">
         <v>38945</v>
       </c>
@@ -2995,7 +3028,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="2">
         <v>38949</v>
       </c>
@@ -3021,7 +3054,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="2">
         <v>38956</v>
       </c>
@@ -3047,7 +3080,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="2">
         <v>38956</v>
       </c>
@@ -3073,7 +3106,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="2">
         <v>38961</v>
       </c>
@@ -3099,7 +3132,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="2">
         <v>38965</v>
       </c>
@@ -3125,7 +3158,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="2">
         <v>38971</v>
       </c>
@@ -3151,7 +3184,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="2">
         <v>38971</v>
       </c>
@@ -3177,7 +3210,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="2">
         <v>38981</v>
       </c>
@@ -3203,7 +3236,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="2">
         <v>38981</v>
       </c>
@@ -3229,7 +3262,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="2">
         <v>38981</v>
       </c>
@@ -3255,7 +3288,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="2">
         <v>38982</v>
       </c>
@@ -3281,7 +3314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="2">
         <v>38987</v>
       </c>
@@ -3307,7 +3340,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="2">
         <v>38988</v>
       </c>
@@ -3333,7 +3366,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="2">
         <v>38988</v>
       </c>
@@ -3359,7 +3392,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="2">
         <v>38998</v>
       </c>
@@ -3385,7 +3418,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="2">
         <v>39003</v>
       </c>
@@ -3411,7 +3444,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="2">
         <v>39005</v>
       </c>
@@ -3437,7 +3470,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="2">
         <v>39006</v>
       </c>
@@ -3463,7 +3496,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="2">
         <v>39007</v>
       </c>
@@ -3489,7 +3522,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="2">
         <v>39012</v>
       </c>
@@ -3515,7 +3548,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="2">
         <v>39022</v>
       </c>
@@ -3541,7 +3574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="2">
         <v>39022</v>
       </c>
@@ -3567,7 +3600,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="2">
         <v>39030</v>
       </c>
@@ -3593,7 +3626,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="2">
         <v>39033</v>
       </c>
@@ -3619,7 +3652,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="2">
         <v>39037</v>
       </c>
@@ -3645,7 +3678,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="2">
         <v>39042</v>
       </c>
@@ -3671,7 +3704,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="2">
         <v>39045</v>
       </c>
@@ -3697,7 +3730,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="2">
         <v>39046</v>
       </c>
@@ -3723,7 +3756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="2">
         <v>39048</v>
       </c>
@@ -3749,7 +3782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="2">
         <v>39050</v>
       </c>
@@ -3775,7 +3808,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="2">
         <v>39060</v>
       </c>
@@ -3801,7 +3834,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="2">
         <v>39060</v>
       </c>
@@ -3827,7 +3860,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="2">
         <v>39062</v>
       </c>
@@ -3853,7 +3886,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="2">
         <v>39065</v>
       </c>
@@ -3879,7 +3912,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="2">
         <v>39066</v>
       </c>
@@ -3905,7 +3938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="2">
         <v>39069</v>
       </c>
@@ -3931,7 +3964,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="2">
         <v>39078</v>
       </c>
@@ -3957,7 +3990,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="2">
         <v>39079</v>
       </c>
@@ -3983,7 +4016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="2">
         <v>39080</v>
       </c>
@@ -4009,7 +4042,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="2">
         <v>39082</v>
       </c>
@@ -4033,6 +4066,3910 @@
       </c>
       <c r="H134" s="1">
         <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B55E85-A09F-4680-8C41-7F87CF1ED5A7}">
+  <dimension ref="A1:I134"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I134"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="8" width="15.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
+        <v>40183</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>11850</v>
+      </c>
+      <c r="E2" s="1">
+        <v>4360</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="2">
+        <v>40186</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1">
+        <v>11150</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4860</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
+        <v>40186</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1">
+        <v>10600</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3880</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="2">
+        <v>40196</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1">
+        <v>10150</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2400</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="2">
+        <v>40197</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1">
+        <v>11750</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3540</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>40199</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1">
+        <v>13750</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3340</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <v>40201</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1">
+        <v>11050</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2060</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>40202</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1">
+        <v>10800</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3700</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>40205</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1">
+        <v>14350</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2340</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
+        <v>40206</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1">
+        <v>10900</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3380</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <v>40207</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1">
+        <v>11000</v>
+      </c>
+      <c r="E12" s="1">
+        <v>3580</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="2">
+        <v>40208</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1">
+        <v>13050</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2780</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="2">
+        <v>40220</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="1">
+        <v>11500</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2160</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="2">
+        <v>40223</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>12050</v>
+      </c>
+      <c r="E15" s="1">
+        <v>5640</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="2">
+        <v>40225</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="1">
+        <v>11400</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2940</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="2">
+        <v>40228</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="1">
+        <v>11900</v>
+      </c>
+      <c r="E17" s="1">
+        <v>4620</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="2">
+        <v>40228</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="1">
+        <v>13300</v>
+      </c>
+      <c r="E18" s="1">
+        <v>3780</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="2">
+        <v>40231</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="1">
+        <v>13750</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2080</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="2">
+        <v>40233</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="1">
+        <v>13150</v>
+      </c>
+      <c r="E20" s="1">
+        <v>4080</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="2">
+        <v>40234</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="1">
+        <v>14800</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2260</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="2">
+        <v>40236</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="1">
+        <v>14350</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2660</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="2">
+        <v>40238</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="1">
+        <v>13600</v>
+      </c>
+      <c r="E23" s="1">
+        <v>4820</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="2">
+        <v>40242</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="1">
+        <v>12600</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2740</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="2">
+        <v>40244</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="1">
+        <v>13600</v>
+      </c>
+      <c r="E25" s="1">
+        <v>5280</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="2">
+        <v>40245</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="1">
+        <v>10600</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2320</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="2">
+        <v>40251</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="1">
+        <v>11150</v>
+      </c>
+      <c r="E27" s="1">
+        <v>4000</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="2">
+        <v>40251</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="1">
+        <v>12100</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2940</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="2">
+        <v>40252</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="1">
+        <v>12850</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2720</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="2">
+        <v>40253</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="1">
+        <v>13800</v>
+      </c>
+      <c r="E30" s="1">
+        <v>5300</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="2">
+        <v>40254</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="1">
+        <v>11050</v>
+      </c>
+      <c r="E31" s="1">
+        <v>4500</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="2">
+        <v>40257</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="1">
+        <v>11800</v>
+      </c>
+      <c r="E32" s="1">
+        <v>2540</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="2">
+        <v>40263</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="1">
+        <v>14950</v>
+      </c>
+      <c r="E33" s="1">
+        <v>3120</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="2">
+        <v>40264</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="1">
+        <v>10550</v>
+      </c>
+      <c r="E34" s="1">
+        <v>3080</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="2">
+        <v>40266</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="1">
+        <v>13650</v>
+      </c>
+      <c r="E35" s="1">
+        <v>3300</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="2">
+        <v>40267</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="1">
+        <v>10600</v>
+      </c>
+      <c r="E36" s="1">
+        <v>4040</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="2">
+        <v>40268</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="1">
+        <v>13200</v>
+      </c>
+      <c r="E37" s="1">
+        <v>3760</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="2">
+        <v>40268</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="1">
+        <v>10550</v>
+      </c>
+      <c r="E38" s="1">
+        <v>2700</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="2">
+        <v>40270</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="1">
+        <v>13100</v>
+      </c>
+      <c r="E39" s="1">
+        <v>2060</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="2">
+        <v>40276</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="1">
+        <v>12600</v>
+      </c>
+      <c r="E40" s="1">
+        <v>2920</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="2">
+        <v>40278</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="1">
+        <v>10500</v>
+      </c>
+      <c r="E41" s="1">
+        <v>4240</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="2">
+        <v>40279</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="1">
+        <v>12850</v>
+      </c>
+      <c r="E42" s="1">
+        <v>5620</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="2">
+        <v>40280</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="1">
+        <v>13750</v>
+      </c>
+      <c r="E43" s="1">
+        <v>4340</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="2">
+        <v>40283</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="1">
+        <v>11800</v>
+      </c>
+      <c r="E44" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="2">
+        <v>40288</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="1">
+        <v>13050</v>
+      </c>
+      <c r="E45" s="1">
+        <v>3040</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="2">
+        <v>40290</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="1">
+        <v>11950</v>
+      </c>
+      <c r="E46" s="1">
+        <v>2940</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="2">
+        <v>40293</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="1">
+        <v>11650</v>
+      </c>
+      <c r="E47" s="1">
+        <v>3260</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="2">
+        <v>40296</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="1">
+        <v>14800</v>
+      </c>
+      <c r="E48" s="1">
+        <v>2680</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="2">
+        <v>40299</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" s="1">
+        <v>11050</v>
+      </c>
+      <c r="E49" s="1">
+        <v>2360</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="2">
+        <v>40301</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="1">
+        <v>13050</v>
+      </c>
+      <c r="E50" s="1">
+        <v>4940</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="2">
+        <v>40304</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="1">
+        <v>14700</v>
+      </c>
+      <c r="E51" s="1">
+        <v>2100</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="2">
+        <v>40309</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="1">
+        <v>14900</v>
+      </c>
+      <c r="E52" s="1">
+        <v>2820</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="2">
+        <v>40311</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" s="1">
+        <v>13550</v>
+      </c>
+      <c r="E53" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="2">
+        <v>40313</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="1">
+        <v>10500</v>
+      </c>
+      <c r="E54" s="1">
+        <v>5640</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="2">
+        <v>40314</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="1">
+        <v>10200</v>
+      </c>
+      <c r="E55" s="1">
+        <v>4980</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="2">
+        <v>40315</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" s="1">
+        <v>11450</v>
+      </c>
+      <c r="E56" s="1">
+        <v>3800</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="2">
+        <v>40320</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="1">
+        <v>14500</v>
+      </c>
+      <c r="E57" s="1">
+        <v>4980</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="2">
+        <v>40322</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D58" s="1">
+        <v>12300</v>
+      </c>
+      <c r="E58" s="1">
+        <v>5720</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="2">
+        <v>40323</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59" s="1">
+        <v>12050</v>
+      </c>
+      <c r="E59" s="1">
+        <v>4300</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="2">
+        <v>40327</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" s="1">
+        <v>14650</v>
+      </c>
+      <c r="E60" s="1">
+        <v>5040</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="2">
+        <v>40329</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="1">
+        <v>12400</v>
+      </c>
+      <c r="E61" s="1">
+        <v>2220</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="2">
+        <v>40334</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D62" s="1">
+        <v>14900</v>
+      </c>
+      <c r="E62" s="1">
+        <v>5780</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="2">
+        <v>40336</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" s="1">
+        <v>10450</v>
+      </c>
+      <c r="E63" s="1">
+        <v>4600</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="2">
+        <v>40337</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="1">
+        <v>10100</v>
+      </c>
+      <c r="E64" s="1">
+        <v>3640</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="2">
+        <v>40340</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" s="1">
+        <v>13750</v>
+      </c>
+      <c r="E65" s="1">
+        <v>2220</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="2">
+        <v>40343</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" s="1">
+        <v>12450</v>
+      </c>
+      <c r="E66" s="1">
+        <v>2900</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="2">
+        <v>40349</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67" s="1">
+        <v>10400</v>
+      </c>
+      <c r="E67" s="1">
+        <v>2940</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="2">
+        <v>40356</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" s="1">
+        <v>11000</v>
+      </c>
+      <c r="E68" s="1">
+        <v>5740</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="2">
+        <v>40357</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D69" s="1">
+        <v>13650</v>
+      </c>
+      <c r="E69" s="1">
+        <v>5280</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="2">
+        <v>40358</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D70" s="1">
+        <v>13750</v>
+      </c>
+      <c r="E70" s="1">
+        <v>4340</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="2">
+        <v>40359</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D71" s="1">
+        <v>12700</v>
+      </c>
+      <c r="E71" s="1">
+        <v>5080</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="2">
+        <v>40360</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" s="1">
+        <v>13550</v>
+      </c>
+      <c r="E72" s="1">
+        <v>3400</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="2">
+        <v>40363</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D73" s="1">
+        <v>11000</v>
+      </c>
+      <c r="E73" s="1">
+        <v>3740</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="2">
+        <v>40364</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" s="1">
+        <v>12150</v>
+      </c>
+      <c r="E74" s="1">
+        <v>3220</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="2">
+        <v>40368</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D75" s="1">
+        <v>10850</v>
+      </c>
+      <c r="E75" s="1">
+        <v>2100</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="2">
+        <v>40368</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="1">
+        <v>14100</v>
+      </c>
+      <c r="E76" s="1">
+        <v>3820</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="2">
+        <v>40369</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D77" s="1">
+        <v>13750</v>
+      </c>
+      <c r="E77" s="1">
+        <v>4600</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="2">
+        <v>40371</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D78" s="1">
+        <v>13700</v>
+      </c>
+      <c r="E78" s="1">
+        <v>3980</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="2">
+        <v>40372</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" s="1">
+        <v>12900</v>
+      </c>
+      <c r="E79" s="1">
+        <v>4540</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I79" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="2">
+        <v>40376</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D80" s="1">
+        <v>13800</v>
+      </c>
+      <c r="E80" s="1">
+        <v>5460</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I80" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="2">
+        <v>40381</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" s="1">
+        <v>11050</v>
+      </c>
+      <c r="E81" s="1">
+        <v>2360</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I81" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="2">
+        <v>40381</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D82" s="1">
+        <v>14150</v>
+      </c>
+      <c r="E82" s="1">
+        <v>3100</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I82" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="2">
+        <v>40382</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D83" s="1">
+        <v>14550</v>
+      </c>
+      <c r="E83" s="1">
+        <v>2780</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I83" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A84" s="2">
+        <v>40382</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D84" s="1">
+        <v>13200</v>
+      </c>
+      <c r="E84" s="1">
+        <v>2060</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I84" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A85" s="2">
+        <v>40387</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D85" s="1">
+        <v>14800</v>
+      </c>
+      <c r="E85" s="1">
+        <v>5800</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I85" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A86" s="2">
+        <v>40388</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" s="1">
+        <v>13150</v>
+      </c>
+      <c r="E86" s="1">
+        <v>5740</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I86" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="2">
+        <v>40391</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D87" s="1">
+        <v>14000</v>
+      </c>
+      <c r="E87" s="1">
+        <v>4000</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I87" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A88" s="2">
+        <v>40393</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" s="1">
+        <v>13850</v>
+      </c>
+      <c r="E88" s="1">
+        <v>4140</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A89" s="2">
+        <v>40397</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" s="1">
+        <v>13800</v>
+      </c>
+      <c r="E89" s="1">
+        <v>4880</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I89" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A90" s="2">
+        <v>40401</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D90" s="1">
+        <v>11250</v>
+      </c>
+      <c r="E90" s="1">
+        <v>5500</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I90" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A91" s="2">
+        <v>40402</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D91" s="1">
+        <v>13000</v>
+      </c>
+      <c r="E91" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I91" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A92" s="2">
+        <v>40405</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D92" s="1">
+        <v>11050</v>
+      </c>
+      <c r="E92" s="1">
+        <v>3240</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I92" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A93" s="2">
+        <v>40406</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D93" s="1">
+        <v>12300</v>
+      </c>
+      <c r="E93" s="1">
+        <v>3380</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I93" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A94" s="2">
+        <v>40406</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D94" s="1">
+        <v>12650</v>
+      </c>
+      <c r="E94" s="1">
+        <v>4820</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I94" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A95" s="2">
+        <v>40410</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D95" s="1">
+        <v>12900</v>
+      </c>
+      <c r="E95" s="1">
+        <v>5100</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I95" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A96" s="2">
+        <v>40417</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D96" s="1">
+        <v>12900</v>
+      </c>
+      <c r="E96" s="1">
+        <v>4620</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I96" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A97" s="2">
+        <v>40417</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D97" s="1">
+        <v>11550</v>
+      </c>
+      <c r="E97" s="1">
+        <v>5100</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I97" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A98" s="2">
+        <v>40422</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D98" s="1">
+        <v>12400</v>
+      </c>
+      <c r="E98" s="1">
+        <v>5680</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I98" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A99" s="2">
+        <v>40426</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D99" s="1">
+        <v>14650</v>
+      </c>
+      <c r="E99" s="1">
+        <v>4420</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I99" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A100" s="2">
+        <v>40432</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D100" s="1">
+        <v>14600</v>
+      </c>
+      <c r="E100" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I100" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A101" s="2">
+        <v>40432</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D101" s="1">
+        <v>13450</v>
+      </c>
+      <c r="E101" s="1">
+        <v>3180</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I101" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A102" s="2">
+        <v>40442</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D102" s="1">
+        <v>10000</v>
+      </c>
+      <c r="E102" s="1">
+        <v>4180</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I102" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A103" s="2">
+        <v>40442</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D103" s="1">
+        <v>13600</v>
+      </c>
+      <c r="E103" s="1">
+        <v>2460</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I103" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A104" s="2">
+        <v>40442</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D104" s="1">
+        <v>13550</v>
+      </c>
+      <c r="E104" s="1">
+        <v>2960</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I104" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A105" s="2">
+        <v>40443</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" s="1">
+        <v>14550</v>
+      </c>
+      <c r="E105" s="1">
+        <v>4160</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I105" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A106" s="2">
+        <v>40448</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D106" s="1">
+        <v>10850</v>
+      </c>
+      <c r="E106" s="1">
+        <v>2240</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I106" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A107" s="2">
+        <v>40449</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D107" s="1">
+        <v>12550</v>
+      </c>
+      <c r="E107" s="1">
+        <v>2180</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I107" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A108" s="2">
+        <v>40449</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108" s="1">
+        <v>10300</v>
+      </c>
+      <c r="E108" s="1">
+        <v>4040</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I108" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A109" s="2">
+        <v>40459</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D109" s="1">
+        <v>10400</v>
+      </c>
+      <c r="E109" s="1">
+        <v>3760</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I109" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A110" s="2">
+        <v>40464</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D110" s="1">
+        <v>12050</v>
+      </c>
+      <c r="E110" s="1">
+        <v>4780</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I110" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A111" s="2">
+        <v>40466</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" s="1">
+        <v>14550</v>
+      </c>
+      <c r="E111" s="1">
+        <v>4980</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I111" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A112" s="2">
+        <v>40467</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D112" s="1">
+        <v>10700</v>
+      </c>
+      <c r="E112" s="1">
+        <v>5800</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I112" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A113" s="2">
+        <v>40468</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D113" s="1">
+        <v>10050</v>
+      </c>
+      <c r="E113" s="1">
+        <v>5640</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I113" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A114" s="2">
+        <v>40473</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D114" s="1">
+        <v>12900</v>
+      </c>
+      <c r="E114" s="1">
+        <v>3720</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I114" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A115" s="2">
+        <v>40483</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D115" s="1">
+        <v>14750</v>
+      </c>
+      <c r="E115" s="1">
+        <v>3620</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I115" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A116" s="2">
+        <v>40483</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D116" s="1">
+        <v>12900</v>
+      </c>
+      <c r="E116" s="1">
+        <v>2740</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I116" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A117" s="2">
+        <v>40491</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D117" s="1">
+        <v>10000</v>
+      </c>
+      <c r="E117" s="1">
+        <v>2540</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I117" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A118" s="2">
+        <v>40494</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D118" s="1">
+        <v>11700</v>
+      </c>
+      <c r="E118" s="1">
+        <v>2840</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I118" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A119" s="2">
+        <v>40498</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D119" s="1">
+        <v>13400</v>
+      </c>
+      <c r="E119" s="1">
+        <v>4280</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I119" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A120" s="2">
+        <v>40503</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D120" s="1">
+        <v>14550</v>
+      </c>
+      <c r="E120" s="1">
+        <v>3280</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I120" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A121" s="2">
+        <v>40506</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D121" s="1">
+        <v>13400</v>
+      </c>
+      <c r="E121" s="1">
+        <v>3340</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I121" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A122" s="2">
+        <v>40507</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D122" s="1">
+        <v>14900</v>
+      </c>
+      <c r="E122" s="1">
+        <v>4640</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I122" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A123" s="2">
+        <v>40509</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" s="1">
+        <v>11500</v>
+      </c>
+      <c r="E123" s="1">
+        <v>3780</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I123" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A124" s="2">
+        <v>40511</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D124" s="1">
+        <v>10100</v>
+      </c>
+      <c r="E124" s="1">
+        <v>2680</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I124" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A125" s="2">
+        <v>40521</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D125" s="1">
+        <v>12650</v>
+      </c>
+      <c r="E125" s="1">
+        <v>4160</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I125" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A126" s="2">
+        <v>40521</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126" s="1">
+        <v>12150</v>
+      </c>
+      <c r="E126" s="1">
+        <v>3840</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I126" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A127" s="2">
+        <v>40523</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D127" s="1">
+        <v>10350</v>
+      </c>
+      <c r="E127" s="1">
+        <v>2660</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I127" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A128" s="2">
+        <v>40526</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D128" s="1">
+        <v>13650</v>
+      </c>
+      <c r="E128" s="1">
+        <v>2180</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I128" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A129" s="2">
+        <v>40527</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D129" s="1">
+        <v>12350</v>
+      </c>
+      <c r="E129" s="1">
+        <v>2620</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I129" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A130" s="2">
+        <v>40530</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D130" s="1">
+        <v>14150</v>
+      </c>
+      <c r="E130" s="1">
+        <v>2140</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I130" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A131" s="2">
+        <v>40539</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D131" s="1">
+        <v>12000</v>
+      </c>
+      <c r="E131" s="1">
+        <v>3640</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I131" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A132" s="2">
+        <v>40540</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D132" s="1">
+        <v>12050</v>
+      </c>
+      <c r="E132" s="1">
+        <v>2280</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I132" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A133" s="2">
+        <v>40541</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D133" s="1">
+        <v>10150</v>
+      </c>
+      <c r="E133" s="1">
+        <v>4020</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I133" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A134" s="2">
+        <v>40543</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D134" s="1">
+        <v>11700</v>
+      </c>
+      <c r="E134" s="1">
+        <v>4520</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I134" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
